--- a/data/output/wt/Fluc.xlsx
+++ b/data/output/wt/Fluc.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -814,7 +814,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -9382,7 +9382,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -10147,7 +10147,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -10453,7 +10453,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -11524,7 +11524,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -12289,7 +12289,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -12442,7 +12442,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -12595,7 +12595,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -13972,7 +13972,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -14125,7 +14125,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -14737,7 +14737,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -14890,7 +14890,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -15349,7 +15349,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -15502,7 +15502,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -15655,7 +15655,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -16114,7 +16114,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -16267,7 +16267,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -16420,7 +16420,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -16879,7 +16879,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -17185,7 +17185,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -17797,7 +17797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -17950,7 +17950,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -18256,7 +18256,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -18409,7 +18409,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -18562,7 +18562,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -18715,7 +18715,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -18868,7 +18868,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -19174,7 +19174,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -19633,7 +19633,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -19786,7 +19786,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -20245,7 +20245,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -20398,7 +20398,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -20704,7 +20704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -21010,7 +21010,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -21163,7 +21163,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -21622,7 +21622,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -21775,7 +21775,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -22234,7 +22234,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -22387,7 +22387,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -22693,7 +22693,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -22846,7 +22846,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -22999,7 +22999,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -23152,7 +23152,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -23764,7 +23764,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -24070,7 +24070,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -24223,7 +24223,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -24529,7 +24529,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -24682,7 +24682,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -24835,7 +24835,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -24988,7 +24988,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -25141,7 +25141,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -25294,7 +25294,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -25447,7 +25447,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -25600,7 +25600,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -25753,7 +25753,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -25906,7 +25906,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -26059,7 +26059,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -26212,7 +26212,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -26365,7 +26365,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -26518,7 +26518,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -26824,7 +26824,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -26977,7 +26977,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -27130,7 +27130,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -27283,7 +27283,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -27436,7 +27436,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -27589,7 +27589,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -27742,7 +27742,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -27895,7 +27895,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -28201,7 +28201,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -28354,7 +28354,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -28507,7 +28507,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -28660,7 +28660,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -28813,7 +28813,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -28966,7 +28966,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -29272,7 +29272,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -29425,7 +29425,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -29578,7 +29578,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -29731,7 +29731,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -29884,7 +29884,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -30037,7 +30037,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -30190,7 +30190,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -30343,7 +30343,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -30496,7 +30496,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -30649,7 +30649,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -30802,7 +30802,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -30955,7 +30955,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -31108,7 +31108,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -31261,7 +31261,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -31414,7 +31414,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -31567,7 +31567,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -31873,7 +31873,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -32026,7 +32026,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -32179,7 +32179,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -32332,7 +32332,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -32485,7 +32485,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -32638,7 +32638,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -32791,7 +32791,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -32944,7 +32944,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -33097,7 +33097,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -33250,7 +33250,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -33403,7 +33403,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -33556,7 +33556,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -33709,7 +33709,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -33862,7 +33862,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -34015,7 +34015,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -34168,7 +34168,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -34321,7 +34321,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -34474,7 +34474,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -34627,7 +34627,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -34780,7 +34780,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -34933,7 +34933,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -35086,7 +35086,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -35239,7 +35239,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -35392,7 +35392,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -35545,7 +35545,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -35698,7 +35698,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -35851,7 +35851,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -36004,7 +36004,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>1ba3</t>
+          <t>fLuc</t>
         </is>
       </c>
       <c r="C233" t="n">
